--- a/user-data/iati-budgets-be/iati-budgets-be.xlsx
+++ b/user-data/iati-budgets-be/iati-budgets-be.xlsx
@@ -34,12 +34,36 @@
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">BD</t>
   </si>
   <si>
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -52,22 +76,52 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -76,76 +130,40 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GN</t>
@@ -154,28 +172,28 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">GW</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea-Bissau</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -184,12 +202,6 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
@@ -208,12 +220,6 @@
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA</t>
   </si>
   <si>
@@ -232,30 +238,30 @@
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
     <t xml:space="preserve">MA</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco</t>
   </si>
   <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
     <t xml:space="preserve">MZ</t>
   </si>
   <si>
@@ -268,22 +274,28 @@
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
     <t xml:space="preserve">NE</t>
   </si>
   <si>
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
   </si>
   <si>
     <t xml:space="preserve">PE</t>
@@ -298,28 +310,34 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
     <t xml:space="preserve">RW</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
     <t xml:space="preserve">SL</t>
   </si>
   <si>
     <t xml:space="preserve">Sierra Leone</t>
   </si>
   <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
     <t xml:space="preserve">SR</t>
@@ -328,24 +346,18 @@
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">SY</t>
   </si>
   <si>
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
@@ -364,12 +376,6 @@
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG</t>
   </si>
   <si>
@@ -380,12 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -931,7 +931,7 @@
         <v>2016</v>
       </c>
       <c r="D4" t="n">
-        <v>1320404</v>
+        <v>7051887</v>
       </c>
     </row>
     <row r="5">
@@ -945,77 +945,77 @@
         <v>2017</v>
       </c>
       <c r="D5" t="n">
-        <v>4874</v>
+        <v>5944542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="n">
-        <v>6883173</v>
+        <v>7427489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D7" t="n">
-        <v>646807</v>
+        <v>5057703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D8" t="n">
-        <v>82596</v>
+        <v>212311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>29940243</v>
+        <v>1320404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>2017</v>
       </c>
       <c r="D10" t="n">
-        <v>23028162</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="11">
@@ -1026,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>21076625</v>
+        <v>18232097</v>
       </c>
     </row>
     <row r="12">
@@ -1040,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="n">
-        <v>15529851</v>
+        <v>13865264</v>
       </c>
     </row>
     <row r="13">
@@ -1054,38 +1054,38 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="n">
-        <v>11082111</v>
+        <v>12725587</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D14" t="n">
-        <v>18232097</v>
+        <v>11942210</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>13865264</v>
+        <v>3516716</v>
       </c>
     </row>
     <row r="16">
@@ -1096,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="n">
-        <v>12725587</v>
+        <v>15838571</v>
       </c>
     </row>
     <row r="17">
@@ -1110,10 +1110,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D17" t="n">
-        <v>11942210</v>
+        <v>7670268</v>
       </c>
     </row>
     <row r="18">
@@ -1124,24 +1124,24 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D18" t="n">
-        <v>3516716</v>
+        <v>3198366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D19" t="n">
-        <v>15838571</v>
+        <v>1660319</v>
       </c>
     </row>
     <row r="20">
@@ -1152,38 +1152,38 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="n">
-        <v>7670268</v>
+        <v>1749981</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>3198366</v>
+        <v>6883173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D22" t="n">
-        <v>1660319</v>
+        <v>646807</v>
       </c>
     </row>
     <row r="23">
@@ -1194,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D23" t="n">
-        <v>1749981</v>
+        <v>82596</v>
       </c>
     </row>
     <row r="24">
@@ -1211,7 +1211,7 @@
         <v>2016</v>
       </c>
       <c r="D24" t="n">
-        <v>86604646</v>
+        <v>29940243</v>
       </c>
     </row>
     <row r="25">
@@ -1225,7 +1225,7 @@
         <v>2017</v>
       </c>
       <c r="D25" t="n">
-        <v>49498835</v>
+        <v>23028162</v>
       </c>
     </row>
     <row r="26">
@@ -1239,7 +1239,7 @@
         <v>2018</v>
       </c>
       <c r="D26" t="n">
-        <v>50151615</v>
+        <v>21076625</v>
       </c>
     </row>
     <row r="27">
@@ -1253,7 +1253,7 @@
         <v>2019</v>
       </c>
       <c r="D27" t="n">
-        <v>44349411</v>
+        <v>15529851</v>
       </c>
     </row>
     <row r="28">
@@ -1267,7 +1267,7 @@
         <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>29525784</v>
+        <v>11082111</v>
       </c>
     </row>
     <row r="29">
@@ -1281,21 +1281,21 @@
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>2161942</v>
+        <v>3092803</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="n">
-        <v>78142</v>
+        <v>2615982</v>
       </c>
     </row>
     <row r="31">
@@ -1306,52 +1306,52 @@
         <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D31" t="n">
-        <v>172992</v>
+        <v>1035691</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D32" t="n">
-        <v>2615982</v>
+        <v>833559</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="n">
-        <v>1035691</v>
+        <v>655834</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>833559</v>
+        <v>499644</v>
       </c>
     </row>
     <row r="35">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>655834</v>
+        <v>2161942</v>
       </c>
     </row>
     <row r="36">
@@ -1376,10 +1376,10 @@
         <v>25</v>
       </c>
       <c r="C36" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="n">
-        <v>499644</v>
+        <v>78142</v>
       </c>
     </row>
     <row r="37">
@@ -1421,49 +1421,49 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>2309624</v>
+        <v>172992</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D40" t="n">
-        <v>570742</v>
+        <v>2309624</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D41" t="n">
-        <v>329104</v>
+        <v>570742</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="n">
-        <v>156970</v>
+        <v>329104</v>
       </c>
     </row>
     <row r="43">
@@ -1474,52 +1474,52 @@
         <v>33</v>
       </c>
       <c r="C43" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D43" t="n">
-        <v>438528</v>
+        <v>156970</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D44" t="n">
-        <v>130286</v>
+        <v>438528</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D45" t="n">
-        <v>72645</v>
+        <v>130286</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C46" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D46" t="n">
-        <v>14211</v>
+        <v>72645</v>
       </c>
     </row>
     <row r="47">
@@ -1530,66 +1530,66 @@
         <v>35</v>
       </c>
       <c r="C47" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D47" t="n">
-        <v>7051887</v>
+        <v>14211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C48" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D48" t="n">
-        <v>5944542</v>
+        <v>86604646</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D49" t="n">
-        <v>7427489</v>
+        <v>49498835</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C50" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="n">
-        <v>5057703</v>
+        <v>50151615</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D51" t="n">
-        <v>212311</v>
+        <v>44349411</v>
       </c>
     </row>
     <row r="52">
@@ -1600,52 +1600,52 @@
         <v>37</v>
       </c>
       <c r="C52" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>8544222</v>
+        <v>29525784</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>423629</v>
+        <v>8544222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="n">
-        <v>183205</v>
+        <v>423629</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D55" t="n">
-        <v>56216</v>
+        <v>183205</v>
       </c>
     </row>
     <row r="56">
@@ -1656,136 +1656,136 @@
         <v>39</v>
       </c>
       <c r="C56" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="n">
-        <v>1393270</v>
+        <v>56216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C57" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>478458</v>
+        <v>1745313</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C58" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D58" t="n">
-        <v>226849</v>
+        <v>1393270</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D59" t="n">
-        <v>2681895</v>
+        <v>478458</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D60" t="n">
-        <v>2219406</v>
+        <v>226849</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C61" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>1748204</v>
+        <v>84890</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C62" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D62" t="n">
-        <v>1362043</v>
+        <v>2681895</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C63" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D63" t="n">
-        <v>982394</v>
+        <v>2219406</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C64" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D64" t="n">
-        <v>84890</v>
+        <v>1748204</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C65" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D65" t="n">
-        <v>3070647</v>
+        <v>1362043</v>
       </c>
     </row>
     <row r="66">
@@ -1796,10 +1796,10 @@
         <v>47</v>
       </c>
       <c r="C66" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>2873522</v>
+        <v>982394</v>
       </c>
     </row>
     <row r="67">
@@ -1813,7 +1813,7 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>335486</v>
+        <v>2873522</v>
       </c>
     </row>
     <row r="68">
@@ -1827,119 +1827,119 @@
         <v>2016</v>
       </c>
       <c r="D68" t="n">
-        <v>1456966</v>
+        <v>3070647</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C69" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>704132</v>
+        <v>335486</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D70" t="n">
-        <v>623072</v>
+        <v>4234702</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C71" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D71" t="n">
-        <v>545030</v>
+        <v>116122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C72" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D72" t="n">
-        <v>469288</v>
+        <v>34786</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>4234702</v>
+        <v>1456966</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C74" t="n">
         <v>2017</v>
       </c>
       <c r="D74" t="n">
-        <v>116122</v>
+        <v>704132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C75" t="n">
         <v>2018</v>
       </c>
       <c r="D75" t="n">
-        <v>34786</v>
+        <v>623072</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C76" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D76" t="n">
-        <v>1855044</v>
+        <v>545030</v>
       </c>
     </row>
     <row r="77">
@@ -1950,10 +1950,10 @@
         <v>57</v>
       </c>
       <c r="C77" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>1443265</v>
+        <v>469288</v>
       </c>
     </row>
     <row r="78">
@@ -1964,10 +1964,10 @@
         <v>59</v>
       </c>
       <c r="C78" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D78" t="n">
-        <v>78142</v>
+        <v>1443265</v>
       </c>
     </row>
     <row r="79">
@@ -1981,7 +1981,7 @@
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>5469975</v>
+        <v>1855044</v>
       </c>
     </row>
     <row r="80">
@@ -1992,80 +1992,80 @@
         <v>63</v>
       </c>
       <c r="C80" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D80" t="n">
-        <v>4476984</v>
+        <v>78142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C81" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>1865571</v>
+        <v>5469975</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C82" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D82" t="n">
-        <v>1521102</v>
+        <v>4476984</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C83" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D83" t="n">
-        <v>1309074</v>
+        <v>1865571</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C84" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D84" t="n">
-        <v>988208</v>
+        <v>1521102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C85" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D85" t="n">
-        <v>3092803</v>
+        <v>1309074</v>
       </c>
     </row>
     <row r="86">
@@ -2076,10 +2076,10 @@
         <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>1155479</v>
+        <v>988208</v>
       </c>
     </row>
     <row r="87">
@@ -2093,7 +2093,7 @@
         <v>2016</v>
       </c>
       <c r="D87" t="n">
-        <v>5990925</v>
+        <v>1155479</v>
       </c>
     </row>
     <row r="88">
@@ -2107,7 +2107,7 @@
         <v>2016</v>
       </c>
       <c r="D88" t="n">
-        <v>1354470</v>
+        <v>5990925</v>
       </c>
     </row>
     <row r="89">
@@ -2121,77 +2121,77 @@
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>15806228</v>
+        <v>1354470</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C90" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D90" t="n">
-        <v>13936721</v>
+        <v>2044892</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C91" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>9668197</v>
+        <v>12988111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C92" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="n">
-        <v>4961956</v>
+        <v>10996680</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C93" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D93" t="n">
-        <v>4167600</v>
+        <v>7075689</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C94" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D94" t="n">
-        <v>2044892</v>
+        <v>968122</v>
       </c>
     </row>
     <row r="95">
@@ -2202,80 +2202,80 @@
         <v>77</v>
       </c>
       <c r="C95" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D95" t="n">
-        <v>12988111</v>
+        <v>367003</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D96" t="n">
-        <v>10996680</v>
+        <v>280832</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C97" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>7075689</v>
+        <v>15806228</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C98" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D98" t="n">
-        <v>968122</v>
+        <v>13936721</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C99" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D99" t="n">
-        <v>367003</v>
+        <v>9668197</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C100" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D100" t="n">
-        <v>280832</v>
+        <v>4961956</v>
       </c>
     </row>
     <row r="101">
@@ -2286,66 +2286,66 @@
         <v>81</v>
       </c>
       <c r="C101" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D101" t="n">
-        <v>14518119</v>
+        <v>4167600</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C102" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D102" t="n">
-        <v>8472634</v>
+        <v>14518119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C103" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D103" t="n">
-        <v>9845955</v>
+        <v>8472634</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C104" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D104" t="n">
-        <v>9350829</v>
+        <v>9845955</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C105" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D105" t="n">
-        <v>8504370</v>
+        <v>9350829</v>
       </c>
     </row>
     <row r="106">
@@ -2356,10 +2356,10 @@
         <v>83</v>
       </c>
       <c r="C106" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D106" t="n">
-        <v>33935</v>
+        <v>8504370</v>
       </c>
     </row>
     <row r="107">
@@ -2373,133 +2373,133 @@
         <v>2016</v>
       </c>
       <c r="D107" t="n">
-        <v>15510558</v>
+        <v>33935</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D108" t="n">
-        <v>8252587</v>
+        <v>904498</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C109" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>4319295</v>
+        <v>2069195</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C110" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D110" t="n">
-        <v>208380</v>
+        <v>131372</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C111" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D111" t="n">
-        <v>2069195</v>
+        <v>96925</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C112" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D112" t="n">
-        <v>131372</v>
+        <v>61706</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C113" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D113" t="n">
-        <v>96925</v>
+        <v>26535</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C114" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D114" t="n">
-        <v>61706</v>
+        <v>15510558</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C115" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D115" t="n">
-        <v>26535</v>
+        <v>8252587</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C116" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D116" t="n">
-        <v>904498</v>
+        <v>4319295</v>
       </c>
     </row>
     <row r="117">
@@ -2510,38 +2510,38 @@
         <v>91</v>
       </c>
       <c r="C117" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D117" t="n">
-        <v>15001154</v>
+        <v>208380</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C118" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D118" t="n">
-        <v>6535521</v>
+        <v>25463628</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C119" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D119" t="n">
-        <v>4781725</v>
+        <v>21378714</v>
       </c>
     </row>
     <row r="120">
@@ -2552,10 +2552,10 @@
         <v>93</v>
       </c>
       <c r="C120" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D120" t="n">
-        <v>4418461</v>
+        <v>11186090</v>
       </c>
     </row>
     <row r="121">
@@ -2566,10 +2566,10 @@
         <v>93</v>
       </c>
       <c r="C121" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D121" t="n">
-        <v>500779</v>
+        <v>9624515</v>
       </c>
     </row>
     <row r="122">
@@ -2580,38 +2580,38 @@
         <v>93</v>
       </c>
       <c r="C122" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D122" t="n">
-        <v>338891</v>
+        <v>2816426</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C123" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>206377</v>
+        <v>15001154</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C124" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D124" t="n">
-        <v>152519</v>
+        <v>6535521</v>
       </c>
     </row>
     <row r="125">
@@ -2622,66 +2622,66 @@
         <v>95</v>
       </c>
       <c r="C125" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="n">
-        <v>25463628</v>
+        <v>4781725</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C126" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D126" t="n">
-        <v>21378714</v>
+        <v>4418461</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B127" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C127" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D127" t="n">
-        <v>11186090</v>
+        <v>500779</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C128" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D128" t="n">
-        <v>9624515</v>
+        <v>338891</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C129" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D129" t="n">
-        <v>2816426</v>
+        <v>206377</v>
       </c>
     </row>
     <row r="130">
@@ -2692,66 +2692,66 @@
         <v>97</v>
       </c>
       <c r="C130" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D130" t="n">
-        <v>25129236</v>
+        <v>152519</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B131" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C131" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>23532902</v>
+        <v>25129236</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B132" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C132" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D132" t="n">
-        <v>28738035</v>
+        <v>23532902</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B133" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C133" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="n">
-        <v>29877593</v>
+        <v>28738035</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C134" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D134" t="n">
-        <v>15495137</v>
+        <v>29877593</v>
       </c>
     </row>
     <row r="135">
@@ -2762,10 +2762,10 @@
         <v>99</v>
       </c>
       <c r="C135" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D135" t="n">
-        <v>1354470</v>
+        <v>15495137</v>
       </c>
     </row>
     <row r="136">
@@ -2835,21 +2835,21 @@
         <v>2016</v>
       </c>
       <c r="D140" t="n">
-        <v>1315929</v>
+        <v>1354470</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C141" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>38465</v>
+        <v>10277735</v>
       </c>
     </row>
     <row r="142">
@@ -2860,10 +2860,10 @@
         <v>105</v>
       </c>
       <c r="C142" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D142" t="n">
-        <v>2083800</v>
+        <v>4739090</v>
       </c>
     </row>
     <row r="143">
@@ -2874,102 +2874,102 @@
         <v>105</v>
       </c>
       <c r="C143" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D143" t="n">
-        <v>78142</v>
+        <v>2648177</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C144" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D144" t="n">
-        <v>1745313</v>
+        <v>474428</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>9116625</v>
+        <v>2083800</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C146" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D146" t="n">
-        <v>473082</v>
+        <v>78142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B147" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>18958</v>
+        <v>1315929</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C148" t="n">
         <v>2017</v>
       </c>
       <c r="D148" t="n">
-        <v>8068</v>
+        <v>38465</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B149" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>5339737</v>
+        <v>9116625</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C150" t="n">
         <v>2016</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C151" t="n">
         <v>2017</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C152" t="n">
         <v>2018</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C153" t="n">
         <v>2019</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B154" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C154" t="n">
         <v>2020</v>
@@ -3036,44 +3036,44 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>19704117</v>
+        <v>473082</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C156" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D156" t="n">
-        <v>18387406</v>
+        <v>18958</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B157" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C157" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D157" t="n">
-        <v>17314707</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="158">
@@ -3084,24 +3084,24 @@
         <v>119</v>
       </c>
       <c r="C158" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D158" t="n">
-        <v>15481517</v>
+        <v>5339737</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B159" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C159" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>9458855</v>
+        <v>19704117</v>
       </c>
     </row>
     <row r="160">
@@ -3112,10 +3112,10 @@
         <v>121</v>
       </c>
       <c r="C160" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D160" t="n">
-        <v>14132795</v>
+        <v>18387406</v>
       </c>
     </row>
     <row r="161">
@@ -3126,10 +3126,10 @@
         <v>121</v>
       </c>
       <c r="C161" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="n">
-        <v>12841728</v>
+        <v>17314707</v>
       </c>
     </row>
     <row r="162">
@@ -3140,10 +3140,10 @@
         <v>121</v>
       </c>
       <c r="C162" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D162" t="n">
-        <v>14598697</v>
+        <v>15481517</v>
       </c>
     </row>
     <row r="163">
@@ -3154,24 +3154,24 @@
         <v>121</v>
       </c>
       <c r="C163" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D163" t="n">
-        <v>7640548</v>
+        <v>9458855</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C164" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D164" t="n">
-        <v>212334</v>
+        <v>14132795</v>
       </c>
     </row>
     <row r="165">
@@ -3182,10 +3182,10 @@
         <v>123</v>
       </c>
       <c r="C165" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D165" t="n">
-        <v>10277735</v>
+        <v>12841728</v>
       </c>
     </row>
     <row r="166">
@@ -3196,10 +3196,10 @@
         <v>123</v>
       </c>
       <c r="C166" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D166" t="n">
-        <v>4739090</v>
+        <v>14598697</v>
       </c>
     </row>
     <row r="167">
@@ -3210,10 +3210,10 @@
         <v>123</v>
       </c>
       <c r="C167" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D167" t="n">
-        <v>2648177</v>
+        <v>7640548</v>
       </c>
     </row>
     <row r="168">
@@ -3224,10 +3224,10 @@
         <v>123</v>
       </c>
       <c r="C168" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D168" t="n">
-        <v>474428</v>
+        <v>212334</v>
       </c>
     </row>
     <row r="169">
@@ -3277,18 +3277,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3296,565 +3299,668 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>1254962</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>65118</v>
       </c>
-      <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>1320404</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4874</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>7051887</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5944542</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7427489</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5057703</v>
+      </c>
+      <c r="G3" t="n">
+        <v>212311</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>6883173</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>646807</v>
+        <v>1320404</v>
       </c>
       <c r="D4" t="n">
-        <v>82596</v>
+        <v>4874</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>29940243</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>23028162</v>
+        <v>18232097</v>
       </c>
       <c r="D5" t="n">
-        <v>21076625</v>
+        <v>13865264</v>
       </c>
       <c r="E5" t="n">
-        <v>15529851</v>
+        <v>12725587</v>
       </c>
       <c r="F5" t="n">
-        <v>11082111</v>
+        <v>11942210</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3516716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>18232097</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>13865264</v>
+        <v>15838571</v>
       </c>
       <c r="D6" t="n">
-        <v>12725587</v>
+        <v>7670268</v>
       </c>
       <c r="E6" t="n">
-        <v>11942210</v>
+        <v>3198366</v>
       </c>
       <c r="F6" t="n">
-        <v>3516716</v>
-      </c>
+        <v>1660319</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>15838571</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>7670268</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3198366</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1660319</v>
-      </c>
+        <v>1749981</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>1749981</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6883173</v>
+      </c>
+      <c r="D8" t="n">
+        <v>646807</v>
+      </c>
+      <c r="E8" t="n">
+        <v>82596</v>
+      </c>
       <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>86604646</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>49498835</v>
+        <v>29940243</v>
       </c>
       <c r="D9" t="n">
-        <v>50151615</v>
+        <v>23028162</v>
       </c>
       <c r="E9" t="n">
-        <v>44349411</v>
+        <v>21076625</v>
       </c>
       <c r="F9" t="n">
-        <v>29525784</v>
+        <v>15529851</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11082111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>2161942</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>78142</v>
+        <v>3092803</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>172992</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2615982</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1035691</v>
+      </c>
+      <c r="E11" t="n">
+        <v>833559</v>
+      </c>
+      <c r="F11" t="n">
+        <v>655834</v>
+      </c>
+      <c r="G11" t="n">
+        <v>499644</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>2615982</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>1035691</v>
+        <v>2161942</v>
       </c>
       <c r="D12" t="n">
-        <v>833559</v>
-      </c>
-      <c r="E12" t="n">
-        <v>655834</v>
-      </c>
-      <c r="F12" t="n">
-        <v>499644</v>
-      </c>
+        <v>78142</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
         <v>345174</v>
       </c>
-      <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
         <v>1921600</v>
       </c>
-      <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>2309624</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>570742</v>
-      </c>
-      <c r="D15" t="n">
-        <v>329104</v>
-      </c>
-      <c r="E15" t="n">
-        <v>156970</v>
-      </c>
+        <v>172992</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>438528</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>130286</v>
+        <v>2309624</v>
       </c>
       <c r="D16" t="n">
-        <v>72645</v>
+        <v>570742</v>
       </c>
       <c r="E16" t="n">
-        <v>14211</v>
-      </c>
-      <c r="F16"/>
+        <v>329104</v>
+      </c>
+      <c r="F16" t="n">
+        <v>156970</v>
+      </c>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>7051887</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5944542</v>
+        <v>438528</v>
       </c>
       <c r="D17" t="n">
-        <v>7427489</v>
+        <v>130286</v>
       </c>
       <c r="E17" t="n">
-        <v>5057703</v>
+        <v>72645</v>
       </c>
       <c r="F17" t="n">
-        <v>212311</v>
-      </c>
+        <v>14211</v>
+      </c>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>8544222</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>423629</v>
+        <v>86604646</v>
       </c>
       <c r="D18" t="n">
-        <v>183205</v>
+        <v>49498835</v>
       </c>
       <c r="E18" t="n">
-        <v>56216</v>
-      </c>
-      <c r="F18"/>
+        <v>50151615</v>
+      </c>
+      <c r="F18" t="n">
+        <v>44349411</v>
+      </c>
+      <c r="G18" t="n">
+        <v>29525784</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>1393270</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>478458</v>
+        <v>8544222</v>
       </c>
       <c r="D19" t="n">
-        <v>226849</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>423629</v>
+      </c>
+      <c r="E19" t="n">
+        <v>183205</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56216</v>
+      </c>
+      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>2681895</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>2219406</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1748204</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1362043</v>
-      </c>
-      <c r="F20" t="n">
-        <v>982394</v>
-      </c>
+        <v>1745313</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>84890</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1393270</v>
+      </c>
+      <c r="D21" t="n">
+        <v>478458</v>
+      </c>
+      <c r="E21" t="n">
+        <v>226849</v>
+      </c>
       <c r="F21"/>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>3070647</v>
-      </c>
-      <c r="C22"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>84890</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>2873522</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2681895</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2219406</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1748204</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1362043</v>
+      </c>
+      <c r="G23" t="n">
+        <v>982394</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>335486</v>
-      </c>
-      <c r="C24"/>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2873522</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>1456966</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>704132</v>
-      </c>
-      <c r="D25" t="n">
-        <v>623072</v>
-      </c>
-      <c r="E25" t="n">
-        <v>545030</v>
-      </c>
-      <c r="F25" t="n">
-        <v>469288</v>
-      </c>
+        <v>3070647</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>4234702</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>116122</v>
-      </c>
-      <c r="D26" t="n">
-        <v>34786</v>
-      </c>
+        <v>335486</v>
+      </c>
+      <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>1855044</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4234702</v>
+      </c>
+      <c r="D27" t="n">
+        <v>116122</v>
+      </c>
+      <c r="E27" t="n">
+        <v>34786</v>
+      </c>
       <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>1443265</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1456966</v>
+      </c>
+      <c r="D28" t="n">
+        <v>704132</v>
+      </c>
+      <c r="E28" t="n">
+        <v>623072</v>
+      </c>
+      <c r="F28" t="n">
+        <v>545030</v>
+      </c>
+      <c r="G28" t="n">
+        <v>469288</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
-        <v>78142</v>
+        <v>1443265</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>5469975</v>
-      </c>
-      <c r="C30"/>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1855044</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>4476984</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1865571</v>
-      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31"/>
       <c r="D31" t="n">
-        <v>1521102</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1309074</v>
-      </c>
-      <c r="F31" t="n">
-        <v>988208</v>
-      </c>
+        <v>78142</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>3092803</v>
-      </c>
-      <c r="C32"/>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5469975</v>
+      </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>1155479</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4476984</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1865571</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1521102</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1309074</v>
+      </c>
+      <c r="G33" t="n">
+        <v>988208</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>5990925</v>
-      </c>
-      <c r="C34"/>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1155479</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>1354470</v>
-      </c>
-      <c r="C35"/>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5990925</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>15806228</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>13936721</v>
-      </c>
-      <c r="D36" t="n">
-        <v>9668197</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4961956</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4167600</v>
-      </c>
+        <v>1354470</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
         <v>2044892</v>
       </c>
-      <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
+      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
         <v>12988111</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>10996680</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>7075689</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>968122</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>367003</v>
       </c>
     </row>
@@ -3862,393 +3968,476 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
         <v>280832</v>
       </c>
-      <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>14518119</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>8472634</v>
+        <v>15806228</v>
       </c>
       <c r="D40" t="n">
-        <v>9845955</v>
+        <v>13936721</v>
       </c>
       <c r="E40" t="n">
-        <v>9350829</v>
+        <v>9668197</v>
       </c>
       <c r="F40" t="n">
-        <v>8504370</v>
+        <v>4961956</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4167600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>33935</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14518119</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8472634</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9845955</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9350829</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8504370</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>15510558</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>8252587</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4319295</v>
-      </c>
-      <c r="E42" t="n">
-        <v>208380</v>
-      </c>
+        <v>33935</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
       <c r="F42"/>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>2069195</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>131372</v>
-      </c>
-      <c r="D43" t="n">
-        <v>96925</v>
-      </c>
-      <c r="E43" t="n">
-        <v>61706</v>
-      </c>
-      <c r="F43" t="n">
-        <v>26535</v>
-      </c>
+        <v>904498</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>904498</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2069195</v>
+      </c>
+      <c r="D44" t="n">
+        <v>131372</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96925</v>
+      </c>
+      <c r="F44" t="n">
+        <v>61706</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26535</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>15001154</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>6535521</v>
+        <v>15510558</v>
       </c>
       <c r="D45" t="n">
-        <v>4781725</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>8252587</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4319295</v>
+      </c>
+      <c r="F45" t="n">
+        <v>208380</v>
+      </c>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>4418461</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>500779</v>
+        <v>25463628</v>
       </c>
       <c r="D46" t="n">
-        <v>338891</v>
+        <v>21378714</v>
       </c>
       <c r="E46" t="n">
-        <v>206377</v>
+        <v>11186090</v>
       </c>
       <c r="F46" t="n">
-        <v>152519</v>
+        <v>9624515</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2816426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>25463628</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>21378714</v>
+        <v>15001154</v>
       </c>
       <c r="D47" t="n">
-        <v>11186090</v>
+        <v>6535521</v>
       </c>
       <c r="E47" t="n">
-        <v>9624515</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2816426</v>
-      </c>
+        <v>4781725</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>25129236</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>23532902</v>
+        <v>4418461</v>
       </c>
       <c r="D48" t="n">
-        <v>28738035</v>
+        <v>500779</v>
       </c>
       <c r="E48" t="n">
-        <v>29877593</v>
+        <v>338891</v>
       </c>
       <c r="F48" t="n">
-        <v>15495137</v>
+        <v>206377</v>
+      </c>
+      <c r="G48" t="n">
+        <v>152519</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>1354470</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25129236</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23532902</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28738035</v>
+      </c>
+      <c r="F49" t="n">
+        <v>29877593</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15495137</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
         <v>14392923</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>12340034</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>4719204</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>2759789</v>
       </c>
-      <c r="F50"/>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>1315929</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>38465</v>
+        <v>1354470</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
+      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>2083800</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>78142</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
+        <v>10277735</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4739090</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2648177</v>
+      </c>
+      <c r="F52" t="n">
+        <v>474428</v>
+      </c>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>1745313</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2083800</v>
+      </c>
+      <c r="D53" t="n">
+        <v>78142</v>
+      </c>
       <c r="E53"/>
       <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>9116625</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54"/>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1315929</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38465</v>
+      </c>
       <c r="E54"/>
       <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>473082</v>
-      </c>
-      <c r="C55"/>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9116625</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
+      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>18958</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>8068</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
+        <v>11534964</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8888186</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7880193</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6675178</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5660139</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>5339737</v>
-      </c>
-      <c r="C57"/>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>473082</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
+      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>11534964</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>8888186</v>
+        <v>18958</v>
       </c>
       <c r="D58" t="n">
-        <v>7880193</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6675178</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5660139</v>
-      </c>
+        <v>8068</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>19704117</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>18387406</v>
-      </c>
-      <c r="D59" t="n">
-        <v>17314707</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15481517</v>
-      </c>
-      <c r="F59" t="n">
-        <v>9458855</v>
-      </c>
+        <v>5339737</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>14132795</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>12841728</v>
+        <v>19704117</v>
       </c>
       <c r="D60" t="n">
-        <v>14598697</v>
+        <v>18387406</v>
       </c>
       <c r="E60" t="n">
-        <v>7640548</v>
+        <v>17314707</v>
       </c>
       <c r="F60" t="n">
-        <v>212334</v>
+        <v>15481517</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9458855</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>10277735</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>4739090</v>
+        <v>14132795</v>
       </c>
       <c r="D61" t="n">
-        <v>2648177</v>
+        <v>12841728</v>
       </c>
       <c r="E61" t="n">
-        <v>474428</v>
-      </c>
-      <c r="F61"/>
+        <v>14598697</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7640548</v>
+      </c>
+      <c r="G61" t="n">
+        <v>212334</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
         <v>1026147</v>
       </c>
-      <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
+      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
         <v>2520478</v>
       </c>
-      <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
+      <c r="G63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/iati-budgets-be/iati-budgets-be.xlsx
+++ b/user-data/iati-budgets-be/iati-budgets-be.xlsx
@@ -34,12 +34,36 @@
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">BD</t>
   </si>
   <si>
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -52,22 +76,52 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -76,76 +130,40 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GN</t>
@@ -154,28 +172,28 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">GW</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea-Bissau</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -184,12 +202,6 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
@@ -208,12 +220,6 @@
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA</t>
   </si>
   <si>
@@ -232,30 +238,30 @@
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
     <t xml:space="preserve">MA</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco</t>
   </si>
   <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
     <t xml:space="preserve">MZ</t>
   </si>
   <si>
@@ -268,22 +274,28 @@
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
     <t xml:space="preserve">NE</t>
   </si>
   <si>
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
   </si>
   <si>
     <t xml:space="preserve">PE</t>
@@ -298,28 +310,34 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
     <t xml:space="preserve">RW</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
     <t xml:space="preserve">SL</t>
   </si>
   <si>
     <t xml:space="preserve">Sierra Leone</t>
   </si>
   <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
     <t xml:space="preserve">SR</t>
@@ -328,24 +346,18 @@
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">SY</t>
   </si>
   <si>
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
     <t xml:space="preserve">TG</t>
   </si>
   <si>
@@ -364,12 +376,6 @@
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
     <t xml:space="preserve">UG</t>
   </si>
   <si>
@@ -380,12 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -931,7 +931,7 @@
         <v>2016</v>
       </c>
       <c r="D4" t="n">
-        <v>1320404</v>
+        <v>7051887</v>
       </c>
     </row>
     <row r="5">
@@ -945,77 +945,77 @@
         <v>2017</v>
       </c>
       <c r="D5" t="n">
-        <v>4874</v>
+        <v>5944542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="n">
-        <v>6883173</v>
+        <v>7427489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D7" t="n">
-        <v>646807</v>
+        <v>5057703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D8" t="n">
-        <v>82596</v>
+        <v>212311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>29940243</v>
+        <v>1320404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>2017</v>
       </c>
       <c r="D10" t="n">
-        <v>23028162</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="11">
@@ -1026,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>21076625</v>
+        <v>18232097</v>
       </c>
     </row>
     <row r="12">
@@ -1040,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="n">
-        <v>15529851</v>
+        <v>13865264</v>
       </c>
     </row>
     <row r="13">
@@ -1054,38 +1054,38 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="n">
-        <v>11082111</v>
+        <v>12725587</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D14" t="n">
-        <v>18232097</v>
+        <v>11942210</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>13865264</v>
+        <v>3516716</v>
       </c>
     </row>
     <row r="16">
@@ -1096,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="n">
-        <v>12725587</v>
+        <v>15838571</v>
       </c>
     </row>
     <row r="17">
@@ -1110,10 +1110,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D17" t="n">
-        <v>11942210</v>
+        <v>7670268</v>
       </c>
     </row>
     <row r="18">
@@ -1124,24 +1124,24 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D18" t="n">
-        <v>3516716</v>
+        <v>3198366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D19" t="n">
-        <v>15838571</v>
+        <v>1660319</v>
       </c>
     </row>
     <row r="20">
@@ -1152,38 +1152,38 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="n">
-        <v>7670268</v>
+        <v>1749981</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>3198366</v>
+        <v>6883173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D22" t="n">
-        <v>1660319</v>
+        <v>646807</v>
       </c>
     </row>
     <row r="23">
@@ -1194,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D23" t="n">
-        <v>1749981</v>
+        <v>82596</v>
       </c>
     </row>
     <row r="24">
@@ -1211,7 +1211,7 @@
         <v>2016</v>
       </c>
       <c r="D24" t="n">
-        <v>86604646</v>
+        <v>29940243</v>
       </c>
     </row>
     <row r="25">
@@ -1225,7 +1225,7 @@
         <v>2017</v>
       </c>
       <c r="D25" t="n">
-        <v>49498835</v>
+        <v>23028162</v>
       </c>
     </row>
     <row r="26">
@@ -1239,7 +1239,7 @@
         <v>2018</v>
       </c>
       <c r="D26" t="n">
-        <v>50151615</v>
+        <v>21076625</v>
       </c>
     </row>
     <row r="27">
@@ -1253,7 +1253,7 @@
         <v>2019</v>
       </c>
       <c r="D27" t="n">
-        <v>44349411</v>
+        <v>15529851</v>
       </c>
     </row>
     <row r="28">
@@ -1267,7 +1267,7 @@
         <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>29525784</v>
+        <v>11082111</v>
       </c>
     </row>
     <row r="29">
@@ -1281,35 +1281,35 @@
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>2161942</v>
+        <v>172992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="n">
-        <v>78142</v>
+        <v>3092803</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" t="n">
         <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>172992</v>
+        <v>2615982</v>
       </c>
     </row>
     <row r="32">
@@ -1320,10 +1320,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="n">
-        <v>2615982</v>
+        <v>1035691</v>
       </c>
     </row>
     <row r="33">
@@ -1334,10 +1334,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D33" t="n">
-        <v>1035691</v>
+        <v>833559</v>
       </c>
     </row>
     <row r="34">
@@ -1348,10 +1348,10 @@
         <v>25</v>
       </c>
       <c r="C34" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D34" t="n">
-        <v>833559</v>
+        <v>655834</v>
       </c>
     </row>
     <row r="35">
@@ -1362,24 +1362,24 @@
         <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>655834</v>
+        <v>499644</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="n">
-        <v>499644</v>
+        <v>2161942</v>
       </c>
     </row>
     <row r="37">
@@ -1390,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D37" t="n">
-        <v>345174</v>
+        <v>78142</v>
       </c>
     </row>
     <row r="38">
@@ -1407,7 +1407,7 @@
         <v>2016</v>
       </c>
       <c r="D38" t="n">
-        <v>1921600</v>
+        <v>345174</v>
       </c>
     </row>
     <row r="39">
@@ -1421,49 +1421,49 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>2309624</v>
+        <v>1921600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D40" t="n">
-        <v>570742</v>
+        <v>2309624</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D41" t="n">
-        <v>329104</v>
+        <v>570742</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="n">
-        <v>156970</v>
+        <v>329104</v>
       </c>
     </row>
     <row r="43">
@@ -1474,52 +1474,52 @@
         <v>33</v>
       </c>
       <c r="C43" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D43" t="n">
-        <v>438528</v>
+        <v>156970</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D44" t="n">
-        <v>130286</v>
+        <v>438528</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D45" t="n">
-        <v>72645</v>
+        <v>130286</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C46" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D46" t="n">
-        <v>14211</v>
+        <v>72645</v>
       </c>
     </row>
     <row r="47">
@@ -1530,66 +1530,66 @@
         <v>35</v>
       </c>
       <c r="C47" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D47" t="n">
-        <v>7051887</v>
+        <v>14211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C48" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D48" t="n">
-        <v>5944542</v>
+        <v>86604646</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D49" t="n">
-        <v>7427489</v>
+        <v>49498835</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C50" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="n">
-        <v>5057703</v>
+        <v>50151615</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D51" t="n">
-        <v>212311</v>
+        <v>44349411</v>
       </c>
     </row>
     <row r="52">
@@ -1600,52 +1600,52 @@
         <v>37</v>
       </c>
       <c r="C52" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>8544222</v>
+        <v>29525784</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>423629</v>
+        <v>8544222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="n">
-        <v>183205</v>
+        <v>423629</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D55" t="n">
-        <v>56216</v>
+        <v>183205</v>
       </c>
     </row>
     <row r="56">
@@ -1656,136 +1656,136 @@
         <v>39</v>
       </c>
       <c r="C56" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="n">
-        <v>1393270</v>
+        <v>56216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C57" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>478458</v>
+        <v>1745313</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C58" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D58" t="n">
-        <v>226849</v>
+        <v>1393270</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D59" t="n">
-        <v>2681895</v>
+        <v>478458</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D60" t="n">
-        <v>2219406</v>
+        <v>226849</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C61" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>1748204</v>
+        <v>84890</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C62" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D62" t="n">
-        <v>1362043</v>
+        <v>2681895</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C63" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D63" t="n">
-        <v>982394</v>
+        <v>2219406</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C64" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D64" t="n">
-        <v>84890</v>
+        <v>1748204</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C65" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D65" t="n">
-        <v>3070647</v>
+        <v>1362043</v>
       </c>
     </row>
     <row r="66">
@@ -1796,10 +1796,10 @@
         <v>47</v>
       </c>
       <c r="C66" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>2873522</v>
+        <v>982394</v>
       </c>
     </row>
     <row r="67">
@@ -1813,7 +1813,7 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>335486</v>
+        <v>2873522</v>
       </c>
     </row>
     <row r="68">
@@ -1827,119 +1827,119 @@
         <v>2016</v>
       </c>
       <c r="D68" t="n">
-        <v>1456966</v>
+        <v>3070647</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C69" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>704132</v>
+        <v>335486</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D70" t="n">
-        <v>623072</v>
+        <v>4234702</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C71" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D71" t="n">
-        <v>545030</v>
+        <v>116122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C72" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D72" t="n">
-        <v>469288</v>
+        <v>34786</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>4234702</v>
+        <v>1456966</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C74" t="n">
         <v>2017</v>
       </c>
       <c r="D74" t="n">
-        <v>116122</v>
+        <v>704132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C75" t="n">
         <v>2018</v>
       </c>
       <c r="D75" t="n">
-        <v>34786</v>
+        <v>623072</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C76" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D76" t="n">
-        <v>1855044</v>
+        <v>545030</v>
       </c>
     </row>
     <row r="77">
@@ -1950,10 +1950,10 @@
         <v>57</v>
       </c>
       <c r="C77" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>1443265</v>
+        <v>469288</v>
       </c>
     </row>
     <row r="78">
@@ -1964,10 +1964,10 @@
         <v>59</v>
       </c>
       <c r="C78" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D78" t="n">
-        <v>78142</v>
+        <v>1443265</v>
       </c>
     </row>
     <row r="79">
@@ -1981,7 +1981,7 @@
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>5469975</v>
+        <v>1855044</v>
       </c>
     </row>
     <row r="80">
@@ -1992,80 +1992,80 @@
         <v>63</v>
       </c>
       <c r="C80" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D80" t="n">
-        <v>4476984</v>
+        <v>78142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C81" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>1865571</v>
+        <v>5469975</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C82" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D82" t="n">
-        <v>1521102</v>
+        <v>4476984</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C83" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D83" t="n">
-        <v>1309074</v>
+        <v>1865571</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C84" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D84" t="n">
-        <v>988208</v>
+        <v>1521102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C85" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D85" t="n">
-        <v>3092803</v>
+        <v>1309074</v>
       </c>
     </row>
     <row r="86">
@@ -2076,10 +2076,10 @@
         <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>1155479</v>
+        <v>988208</v>
       </c>
     </row>
     <row r="87">
@@ -2093,7 +2093,7 @@
         <v>2016</v>
       </c>
       <c r="D87" t="n">
-        <v>5990925</v>
+        <v>1155479</v>
       </c>
     </row>
     <row r="88">
@@ -2107,7 +2107,7 @@
         <v>2016</v>
       </c>
       <c r="D88" t="n">
-        <v>1354470</v>
+        <v>5990925</v>
       </c>
     </row>
     <row r="89">
@@ -2121,77 +2121,77 @@
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>15806228</v>
+        <v>1354470</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C90" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D90" t="n">
-        <v>13936721</v>
+        <v>2044892</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C91" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>9668197</v>
+        <v>12988111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C92" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="n">
-        <v>4961956</v>
+        <v>10996680</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C93" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D93" t="n">
-        <v>4167600</v>
+        <v>7075689</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C94" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D94" t="n">
-        <v>2044892</v>
+        <v>968122</v>
       </c>
     </row>
     <row r="95">
@@ -2202,80 +2202,80 @@
         <v>77</v>
       </c>
       <c r="C95" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D95" t="n">
-        <v>12988111</v>
+        <v>367003</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D96" t="n">
-        <v>10996680</v>
+        <v>280832</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C97" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>7075689</v>
+        <v>15806228</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C98" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D98" t="n">
-        <v>968122</v>
+        <v>13936721</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C99" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D99" t="n">
-        <v>367003</v>
+        <v>9668197</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C100" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D100" t="n">
-        <v>280832</v>
+        <v>4961956</v>
       </c>
     </row>
     <row r="101">
@@ -2286,66 +2286,66 @@
         <v>81</v>
       </c>
       <c r="C101" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D101" t="n">
-        <v>14518119</v>
+        <v>4167600</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C102" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D102" t="n">
-        <v>8472634</v>
+        <v>14518119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C103" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D103" t="n">
-        <v>9845955</v>
+        <v>8472634</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C104" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D104" t="n">
-        <v>9350829</v>
+        <v>9845955</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C105" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D105" t="n">
-        <v>8504370</v>
+        <v>9350829</v>
       </c>
     </row>
     <row r="106">
@@ -2356,10 +2356,10 @@
         <v>83</v>
       </c>
       <c r="C106" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D106" t="n">
-        <v>33935</v>
+        <v>8504370</v>
       </c>
     </row>
     <row r="107">
@@ -2373,133 +2373,133 @@
         <v>2016</v>
       </c>
       <c r="D107" t="n">
-        <v>15510558</v>
+        <v>33935</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D108" t="n">
-        <v>8252587</v>
+        <v>904498</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C109" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>4319295</v>
+        <v>2069195</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C110" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D110" t="n">
-        <v>208380</v>
+        <v>131372</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C111" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D111" t="n">
-        <v>2069195</v>
+        <v>96925</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C112" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D112" t="n">
-        <v>131372</v>
+        <v>61706</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C113" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D113" t="n">
-        <v>96925</v>
+        <v>26535</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C114" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D114" t="n">
-        <v>61706</v>
+        <v>15510558</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C115" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D115" t="n">
-        <v>26535</v>
+        <v>8252587</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C116" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D116" t="n">
-        <v>904498</v>
+        <v>4319295</v>
       </c>
     </row>
     <row r="117">
@@ -2510,38 +2510,38 @@
         <v>91</v>
       </c>
       <c r="C117" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D117" t="n">
-        <v>15001154</v>
+        <v>208380</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C118" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D118" t="n">
-        <v>6535521</v>
+        <v>25463628</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C119" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D119" t="n">
-        <v>4781725</v>
+        <v>21378714</v>
       </c>
     </row>
     <row r="120">
@@ -2552,10 +2552,10 @@
         <v>93</v>
       </c>
       <c r="C120" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D120" t="n">
-        <v>4418461</v>
+        <v>11186090</v>
       </c>
     </row>
     <row r="121">
@@ -2566,10 +2566,10 @@
         <v>93</v>
       </c>
       <c r="C121" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D121" t="n">
-        <v>500779</v>
+        <v>9624515</v>
       </c>
     </row>
     <row r="122">
@@ -2580,38 +2580,38 @@
         <v>93</v>
       </c>
       <c r="C122" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D122" t="n">
-        <v>338891</v>
+        <v>2816426</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C123" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>206377</v>
+        <v>15001154</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C124" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D124" t="n">
-        <v>152519</v>
+        <v>6535521</v>
       </c>
     </row>
     <row r="125">
@@ -2622,66 +2622,66 @@
         <v>95</v>
       </c>
       <c r="C125" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="n">
-        <v>25463628</v>
+        <v>4781725</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C126" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D126" t="n">
-        <v>21378714</v>
+        <v>4418461</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B127" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C127" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D127" t="n">
-        <v>11186090</v>
+        <v>500779</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C128" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D128" t="n">
-        <v>9624515</v>
+        <v>338891</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C129" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D129" t="n">
-        <v>2816426</v>
+        <v>206377</v>
       </c>
     </row>
     <row r="130">
@@ -2692,66 +2692,66 @@
         <v>97</v>
       </c>
       <c r="C130" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D130" t="n">
-        <v>25129236</v>
+        <v>152519</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B131" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C131" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>23532902</v>
+        <v>25129236</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B132" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C132" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D132" t="n">
-        <v>28738035</v>
+        <v>23532902</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B133" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C133" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="n">
-        <v>29877593</v>
+        <v>28738035</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C134" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D134" t="n">
-        <v>15495137</v>
+        <v>29877593</v>
       </c>
     </row>
     <row r="135">
@@ -2762,10 +2762,10 @@
         <v>99</v>
       </c>
       <c r="C135" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D135" t="n">
-        <v>1354470</v>
+        <v>15495137</v>
       </c>
     </row>
     <row r="136">
@@ -2835,21 +2835,21 @@
         <v>2016</v>
       </c>
       <c r="D140" t="n">
-        <v>1315929</v>
+        <v>1354470</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C141" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>38465</v>
+        <v>10277735</v>
       </c>
     </row>
     <row r="142">
@@ -2860,10 +2860,10 @@
         <v>105</v>
       </c>
       <c r="C142" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D142" t="n">
-        <v>2083800</v>
+        <v>4739090</v>
       </c>
     </row>
     <row r="143">
@@ -2874,102 +2874,102 @@
         <v>105</v>
       </c>
       <c r="C143" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D143" t="n">
-        <v>78142</v>
+        <v>2648177</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C144" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D144" t="n">
-        <v>1745313</v>
+        <v>474428</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>9116625</v>
+        <v>2083800</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C146" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D146" t="n">
-        <v>473082</v>
+        <v>78142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B147" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>18958</v>
+        <v>1315929</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C148" t="n">
         <v>2017</v>
       </c>
       <c r="D148" t="n">
-        <v>8068</v>
+        <v>38465</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B149" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>5339737</v>
+        <v>9116625</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C150" t="n">
         <v>2016</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C151" t="n">
         <v>2017</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C152" t="n">
         <v>2018</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C153" t="n">
         <v>2019</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B154" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C154" t="n">
         <v>2020</v>
@@ -3036,44 +3036,44 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>19704117</v>
+        <v>473082</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C156" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D156" t="n">
-        <v>18387406</v>
+        <v>18958</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B157" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C157" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D157" t="n">
-        <v>17314707</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="158">
@@ -3084,24 +3084,24 @@
         <v>119</v>
       </c>
       <c r="C158" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D158" t="n">
-        <v>15481517</v>
+        <v>5339737</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B159" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C159" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>9458855</v>
+        <v>19704117</v>
       </c>
     </row>
     <row r="160">
@@ -3112,10 +3112,10 @@
         <v>121</v>
       </c>
       <c r="C160" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D160" t="n">
-        <v>14132795</v>
+        <v>18387406</v>
       </c>
     </row>
     <row r="161">
@@ -3126,10 +3126,10 @@
         <v>121</v>
       </c>
       <c r="C161" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="n">
-        <v>12841728</v>
+        <v>17314707</v>
       </c>
     </row>
     <row r="162">
@@ -3140,10 +3140,10 @@
         <v>121</v>
       </c>
       <c r="C162" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D162" t="n">
-        <v>14598697</v>
+        <v>15481517</v>
       </c>
     </row>
     <row r="163">
@@ -3154,24 +3154,24 @@
         <v>121</v>
       </c>
       <c r="C163" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D163" t="n">
-        <v>7640548</v>
+        <v>9458855</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C164" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D164" t="n">
-        <v>212334</v>
+        <v>14132795</v>
       </c>
     </row>
     <row r="165">
@@ -3182,10 +3182,10 @@
         <v>123</v>
       </c>
       <c r="C165" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D165" t="n">
-        <v>10277735</v>
+        <v>12841728</v>
       </c>
     </row>
     <row r="166">
@@ -3196,10 +3196,10 @@
         <v>123</v>
       </c>
       <c r="C166" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D166" t="n">
-        <v>4739090</v>
+        <v>14598697</v>
       </c>
     </row>
     <row r="167">
@@ -3210,10 +3210,10 @@
         <v>123</v>
       </c>
       <c r="C167" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D167" t="n">
-        <v>2648177</v>
+        <v>7640548</v>
       </c>
     </row>
     <row r="168">
@@ -3224,10 +3224,10 @@
         <v>123</v>
       </c>
       <c r="C168" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D168" t="n">
-        <v>474428</v>
+        <v>212334</v>
       </c>
     </row>
     <row r="169">
@@ -3277,18 +3277,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3296,179 +3299,210 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>1254962</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>65118</v>
       </c>
-      <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>1320404</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4874</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>7051887</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5944542</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7427489</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5057703</v>
+      </c>
+      <c r="G3" t="n">
+        <v>212311</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>6883173</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>646807</v>
+        <v>1320404</v>
       </c>
       <c r="D4" t="n">
-        <v>82596</v>
+        <v>4874</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>29940243</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>23028162</v>
+        <v>18232097</v>
       </c>
       <c r="D5" t="n">
-        <v>21076625</v>
+        <v>13865264</v>
       </c>
       <c r="E5" t="n">
-        <v>15529851</v>
+        <v>12725587</v>
       </c>
       <c r="F5" t="n">
-        <v>11082111</v>
+        <v>11942210</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3516716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>18232097</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>13865264</v>
+        <v>15838571</v>
       </c>
       <c r="D6" t="n">
-        <v>12725587</v>
+        <v>7670268</v>
       </c>
       <c r="E6" t="n">
-        <v>11942210</v>
+        <v>3198366</v>
       </c>
       <c r="F6" t="n">
-        <v>3516716</v>
-      </c>
+        <v>1660319</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>15838571</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>7670268</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3198366</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1660319</v>
-      </c>
+        <v>1749981</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>1749981</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6883173</v>
+      </c>
+      <c r="D8" t="n">
+        <v>646807</v>
+      </c>
+      <c r="E8" t="n">
+        <v>82596</v>
+      </c>
       <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>86604646</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>49498835</v>
+        <v>29940243</v>
       </c>
       <c r="D9" t="n">
-        <v>50151615</v>
+        <v>23028162</v>
       </c>
       <c r="E9" t="n">
-        <v>44349411</v>
+        <v>21076625</v>
       </c>
       <c r="F9" t="n">
-        <v>29525784</v>
+        <v>15529851</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11082111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>2161942</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>78142</v>
+        <v>172992</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>172992</v>
-      </c>
-      <c r="C11"/>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3092803</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
+      <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
         <v>2615982</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1035691</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>833559</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>655834</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>499644</v>
       </c>
     </row>
@@ -3476,385 +3510,457 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>345174</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2161942</v>
+      </c>
+      <c r="D13" t="n">
+        <v>78142</v>
+      </c>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>1921600</v>
-      </c>
-      <c r="C14"/>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>345174</v>
+      </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>2309624</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>570742</v>
-      </c>
-      <c r="D15" t="n">
-        <v>329104</v>
-      </c>
-      <c r="E15" t="n">
-        <v>156970</v>
-      </c>
+        <v>1921600</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>438528</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>130286</v>
+        <v>2309624</v>
       </c>
       <c r="D16" t="n">
-        <v>72645</v>
+        <v>570742</v>
       </c>
       <c r="E16" t="n">
-        <v>14211</v>
-      </c>
-      <c r="F16"/>
+        <v>329104</v>
+      </c>
+      <c r="F16" t="n">
+        <v>156970</v>
+      </c>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>7051887</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5944542</v>
+        <v>438528</v>
       </c>
       <c r="D17" t="n">
-        <v>7427489</v>
+        <v>130286</v>
       </c>
       <c r="E17" t="n">
-        <v>5057703</v>
+        <v>72645</v>
       </c>
       <c r="F17" t="n">
-        <v>212311</v>
-      </c>
+        <v>14211</v>
+      </c>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>8544222</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>423629</v>
+        <v>86604646</v>
       </c>
       <c r="D18" t="n">
-        <v>183205</v>
+        <v>49498835</v>
       </c>
       <c r="E18" t="n">
-        <v>56216</v>
-      </c>
-      <c r="F18"/>
+        <v>50151615</v>
+      </c>
+      <c r="F18" t="n">
+        <v>44349411</v>
+      </c>
+      <c r="G18" t="n">
+        <v>29525784</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>1393270</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>478458</v>
+        <v>8544222</v>
       </c>
       <c r="D19" t="n">
-        <v>226849</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>423629</v>
+      </c>
+      <c r="E19" t="n">
+        <v>183205</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56216</v>
+      </c>
+      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>2681895</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>2219406</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1748204</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1362043</v>
-      </c>
-      <c r="F20" t="n">
-        <v>982394</v>
-      </c>
+        <v>1745313</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>84890</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1393270</v>
+      </c>
+      <c r="D21" t="n">
+        <v>478458</v>
+      </c>
+      <c r="E21" t="n">
+        <v>226849</v>
+      </c>
       <c r="F21"/>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>3070647</v>
-      </c>
-      <c r="C22"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>84890</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>2873522</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2681895</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2219406</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1748204</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1362043</v>
+      </c>
+      <c r="G23" t="n">
+        <v>982394</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>335486</v>
-      </c>
-      <c r="C24"/>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2873522</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>1456966</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>704132</v>
-      </c>
-      <c r="D25" t="n">
-        <v>623072</v>
-      </c>
-      <c r="E25" t="n">
-        <v>545030</v>
-      </c>
-      <c r="F25" t="n">
-        <v>469288</v>
-      </c>
+        <v>3070647</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>4234702</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>116122</v>
-      </c>
-      <c r="D26" t="n">
-        <v>34786</v>
-      </c>
+        <v>335486</v>
+      </c>
+      <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>1855044</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4234702</v>
+      </c>
+      <c r="D27" t="n">
+        <v>116122</v>
+      </c>
+      <c r="E27" t="n">
+        <v>34786</v>
+      </c>
       <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>1443265</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1456966</v>
+      </c>
+      <c r="D28" t="n">
+        <v>704132</v>
+      </c>
+      <c r="E28" t="n">
+        <v>623072</v>
+      </c>
+      <c r="F28" t="n">
+        <v>545030</v>
+      </c>
+      <c r="G28" t="n">
+        <v>469288</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
-        <v>78142</v>
+        <v>1443265</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>5469975</v>
-      </c>
-      <c r="C30"/>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1855044</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>4476984</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1865571</v>
-      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31"/>
       <c r="D31" t="n">
-        <v>1521102</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1309074</v>
-      </c>
-      <c r="F31" t="n">
-        <v>988208</v>
-      </c>
+        <v>78142</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>3092803</v>
-      </c>
-      <c r="C32"/>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5469975</v>
+      </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>1155479</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4476984</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1865571</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1521102</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1309074</v>
+      </c>
+      <c r="G33" t="n">
+        <v>988208</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>5990925</v>
-      </c>
-      <c r="C34"/>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1155479</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>1354470</v>
-      </c>
-      <c r="C35"/>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5990925</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>15806228</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>13936721</v>
-      </c>
-      <c r="D36" t="n">
-        <v>9668197</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4961956</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4167600</v>
-      </c>
+        <v>1354470</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
         <v>2044892</v>
       </c>
-      <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
+      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
         <v>12988111</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>10996680</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>7075689</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>968122</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>367003</v>
       </c>
     </row>
@@ -3862,393 +3968,476 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
         <v>280832</v>
       </c>
-      <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>14518119</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>8472634</v>
+        <v>15806228</v>
       </c>
       <c r="D40" t="n">
-        <v>9845955</v>
+        <v>13936721</v>
       </c>
       <c r="E40" t="n">
-        <v>9350829</v>
+        <v>9668197</v>
       </c>
       <c r="F40" t="n">
-        <v>8504370</v>
+        <v>4961956</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4167600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>33935</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14518119</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8472634</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9845955</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9350829</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8504370</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>15510558</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>8252587</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4319295</v>
-      </c>
-      <c r="E42" t="n">
-        <v>208380</v>
-      </c>
+        <v>33935</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
       <c r="F42"/>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>2069195</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>131372</v>
-      </c>
-      <c r="D43" t="n">
-        <v>96925</v>
-      </c>
-      <c r="E43" t="n">
-        <v>61706</v>
-      </c>
-      <c r="F43" t="n">
-        <v>26535</v>
-      </c>
+        <v>904498</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>904498</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2069195</v>
+      </c>
+      <c r="D44" t="n">
+        <v>131372</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96925</v>
+      </c>
+      <c r="F44" t="n">
+        <v>61706</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26535</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>15001154</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>6535521</v>
+        <v>15510558</v>
       </c>
       <c r="D45" t="n">
-        <v>4781725</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>8252587</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4319295</v>
+      </c>
+      <c r="F45" t="n">
+        <v>208380</v>
+      </c>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>4418461</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>500779</v>
+        <v>25463628</v>
       </c>
       <c r="D46" t="n">
-        <v>338891</v>
+        <v>21378714</v>
       </c>
       <c r="E46" t="n">
-        <v>206377</v>
+        <v>11186090</v>
       </c>
       <c r="F46" t="n">
-        <v>152519</v>
+        <v>9624515</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2816426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>25463628</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>21378714</v>
+        <v>15001154</v>
       </c>
       <c r="D47" t="n">
-        <v>11186090</v>
+        <v>6535521</v>
       </c>
       <c r="E47" t="n">
-        <v>9624515</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2816426</v>
-      </c>
+        <v>4781725</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>25129236</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>23532902</v>
+        <v>4418461</v>
       </c>
       <c r="D48" t="n">
-        <v>28738035</v>
+        <v>500779</v>
       </c>
       <c r="E48" t="n">
-        <v>29877593</v>
+        <v>338891</v>
       </c>
       <c r="F48" t="n">
-        <v>15495137</v>
+        <v>206377</v>
+      </c>
+      <c r="G48" t="n">
+        <v>152519</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>1354470</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25129236</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23532902</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28738035</v>
+      </c>
+      <c r="F49" t="n">
+        <v>29877593</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15495137</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
         <v>14392923</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>12340034</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>4719204</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>2759789</v>
       </c>
-      <c r="F50"/>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>1315929</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>38465</v>
+        <v>1354470</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
+      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>2083800</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>78142</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
+        <v>10277735</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4739090</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2648177</v>
+      </c>
+      <c r="F52" t="n">
+        <v>474428</v>
+      </c>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>1745313</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2083800</v>
+      </c>
+      <c r="D53" t="n">
+        <v>78142</v>
+      </c>
       <c r="E53"/>
       <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>9116625</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54"/>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1315929</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38465</v>
+      </c>
       <c r="E54"/>
       <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>473082</v>
-      </c>
-      <c r="C55"/>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9116625</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
+      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>18958</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>8068</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
+        <v>11534964</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8888186</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7880193</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6675178</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5660139</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>5339737</v>
-      </c>
-      <c r="C57"/>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>473082</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
+      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>11534964</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>8888186</v>
+        <v>18958</v>
       </c>
       <c r="D58" t="n">
-        <v>7880193</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6675178</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5660139</v>
-      </c>
+        <v>8068</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>19704117</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>18387406</v>
-      </c>
-      <c r="D59" t="n">
-        <v>17314707</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15481517</v>
-      </c>
-      <c r="F59" t="n">
-        <v>9458855</v>
-      </c>
+        <v>5339737</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>14132795</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>12841728</v>
+        <v>19704117</v>
       </c>
       <c r="D60" t="n">
-        <v>14598697</v>
+        <v>18387406</v>
       </c>
       <c r="E60" t="n">
-        <v>7640548</v>
+        <v>17314707</v>
       </c>
       <c r="F60" t="n">
-        <v>212334</v>
+        <v>15481517</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9458855</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>10277735</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>4739090</v>
+        <v>14132795</v>
       </c>
       <c r="D61" t="n">
-        <v>2648177</v>
+        <v>12841728</v>
       </c>
       <c r="E61" t="n">
-        <v>474428</v>
-      </c>
-      <c r="F61"/>
+        <v>14598697</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7640548</v>
+      </c>
+      <c r="G61" t="n">
+        <v>212334</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
         <v>1026147</v>
       </c>
-      <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
+      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
         <v>2520478</v>
       </c>
-      <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
+      <c r="G63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/iati-budgets-be/iati-budgets-be.xlsx
+++ b/user-data/iati-budgets-be/iati-budgets-be.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -76,40 +76,40 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">CU</t>
@@ -418,13 +418,19 @@
     <t xml:space="preserve">Name: iati-budgets-be</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The data shows forward looking budget data reported to the International Aid Transparency Initiative (IATI) by Belgium for existing or committed projects spanning multiple years. Budget data is displayed for the Directorate-General for Development only. This visualisation shows only project financing for specific countries: Regional and unspecified funding is excluded.</t>
+    <t xml:space="preserve">Description: Belgian Development Cooperation forward-looking budgets for each country based on activities reported through IATI.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Development Initaitives based on Belgian DG Development data downloaded via the IATI Registry on 15 December 2016.</t>
+    <t xml:space="preserve">Source: 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -433,25 +439,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -804,63 +804,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1281,7 +1280,7 @@
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>172992</v>
+        <v>3092803</v>
       </c>
     </row>
     <row r="30">
@@ -1295,63 +1294,63 @@
         <v>2016</v>
       </c>
       <c r="D30" t="n">
-        <v>3092803</v>
+        <v>2615982</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D31" t="n">
-        <v>2615982</v>
+        <v>1035691</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D32" t="n">
-        <v>1035691</v>
+        <v>833559</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="n">
-        <v>833559</v>
+        <v>655834</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>655834</v>
+        <v>499644</v>
       </c>
     </row>
     <row r="35">
@@ -1362,24 +1361,24 @@
         <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>499644</v>
+        <v>2161942</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="n">
-        <v>2161942</v>
+        <v>78142</v>
       </c>
     </row>
     <row r="37">
@@ -1390,10 +1389,10 @@
         <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>78142</v>
+        <v>345174</v>
       </c>
     </row>
     <row r="38">
@@ -1407,7 +1406,7 @@
         <v>2016</v>
       </c>
       <c r="D38" t="n">
-        <v>345174</v>
+        <v>1921600</v>
       </c>
     </row>
     <row r="39">
@@ -1421,7 +1420,7 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>1921600</v>
+        <v>172992</v>
       </c>
     </row>
     <row r="40">
@@ -3461,7 +3460,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>172992</v>
+        <v>3092803</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -3476,12 +3475,20 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>3092803</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+        <v>2615982</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1035691</v>
+      </c>
+      <c r="E11" t="n">
+        <v>833559</v>
+      </c>
+      <c r="F11" t="n">
+        <v>655834</v>
+      </c>
+      <c r="G11" t="n">
+        <v>499644</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3491,20 +3498,14 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2615982</v>
+        <v>2161942</v>
       </c>
       <c r="D12" t="n">
-        <v>1035691</v>
-      </c>
-      <c r="E12" t="n">
-        <v>833559</v>
-      </c>
-      <c r="F12" t="n">
-        <v>655834</v>
-      </c>
-      <c r="G12" t="n">
-        <v>499644</v>
-      </c>
+        <v>78142</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3514,11 +3515,9 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>2161942</v>
-      </c>
-      <c r="D13" t="n">
-        <v>78142</v>
-      </c>
+        <v>345174</v>
+      </c>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -3531,7 +3530,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>345174</v>
+        <v>1921600</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -3546,7 +3545,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>1921600</v>
+        <v>172992</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>

--- a/user-data/iati-budgets-be/iati-budgets-be.xlsx
+++ b/user-data/iati-budgets-be/iati-budgets-be.xlsx
@@ -424,7 +424,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 48</t>
+    <t xml:space="preserve">Source: 49</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/iati-budgets-be/iati-budgets-be.xlsx
+++ b/user-data/iati-budgets-be/iati-budgets-be.xlsx
@@ -424,7 +424,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 49</t>
+    <t xml:space="preserve">Source: 48</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
